--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_MinhHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_MinhHuy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="35" r:id="rId1"/>
@@ -664,9 +664,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,21 +701,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1042,43 +1042,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1123,58 +1123,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1199,23 +1199,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>75</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1296,7 +1296,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1472,7 +1472,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2790,13 +2790,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2808,6 +2801,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2851,43 +2851,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2932,58 +2932,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -3008,23 +3008,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3333,7 +3333,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4651,6 +4651,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4662,13 +4669,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4679,8 +4679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4712,43 +4712,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4793,58 +4793,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -4869,23 +4869,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4911,7 +4911,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4942,7 +4942,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5000,7 +5000,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5058,7 +5058,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5087,7 +5087,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5118,7 +5118,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6436,6 +6436,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6447,13 +6454,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
